--- a/ACRUISE-2_master_sheet.xlsx
+++ b/ACRUISE-2_master_sheet.xlsx
@@ -5,19 +5,21 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\ACRUISE\ACRUISE2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\GitHub\ACRUISE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A0AD1BA-88B5-4360-AD1E-E0B88982E9A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A13DB92-8217-4027-9FE2-2EAAEEC2B3B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="195" yWindow="315" windowWidth="7425" windowHeight="13605" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2700" yWindow="660" windowWidth="11790" windowHeight="13605" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="data" sheetId="1" r:id="rId1"/>
-    <sheet name="timpestamps" sheetId="4" r:id="rId2"/>
+    <sheet name="ship_data" sheetId="1" r:id="rId1"/>
+    <sheet name="ship_times" sheetId="4" r:id="rId2"/>
+    <sheet name="ship_swas" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$M$164</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ship_data!$A$1:$M$164</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">ship_swas!$A$1:$H$175</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1805" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2291" uniqueCount="590">
   <si>
     <t>Name</t>
   </si>
@@ -1523,16 +1525,302 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>flushed for test and kept for flight that didn't happen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">west </t>
+  </si>
+  <si>
+    <t>background</t>
+  </si>
+  <si>
+    <t>maybe</t>
+  </si>
+  <si>
+    <t>likely missed</t>
+  </si>
+  <si>
+    <t>successful, big plume</t>
+  </si>
+  <si>
+    <t>successful</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>likely successful</t>
+  </si>
+  <si>
+    <t>might have missed it</t>
+  </si>
+  <si>
+    <t>west</t>
+  </si>
+  <si>
+    <t>fixed, before didn't fill</t>
+  </si>
+  <si>
+    <t>Gwn 3</t>
+  </si>
+  <si>
+    <t>south</t>
+  </si>
+  <si>
+    <t>succesful</t>
+  </si>
+  <si>
+    <t>middle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">background </t>
+  </si>
+  <si>
+    <t>missed it</t>
+  </si>
+  <si>
+    <t>north</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>closest (A)</t>
+  </si>
+  <si>
+    <t>east end</t>
+  </si>
+  <si>
+    <t>west end</t>
+  </si>
+  <si>
+    <t>F, approx 15 miles away</t>
+  </si>
+  <si>
+    <t>E, approx 7 miles away</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>near AG</t>
+  </si>
+  <si>
+    <t>G, didn't fill fully</t>
+  </si>
+  <si>
+    <t>SE corner, filthy air, wet</t>
+  </si>
+  <si>
+    <t>C260</t>
+  </si>
+  <si>
+    <t>proximity of ship, near SE corner, wet</t>
+  </si>
+  <si>
+    <t>SW corner, clean air, wet</t>
+  </si>
+  <si>
+    <t>SO2 present</t>
+  </si>
+  <si>
+    <t>downwind of the lanes</t>
+  </si>
+  <si>
+    <t>upwind of the lanes</t>
+  </si>
+  <si>
+    <t>small plume</t>
+  </si>
+  <si>
+    <t>some SO2</t>
+  </si>
+  <si>
+    <t>methane</t>
+  </si>
+  <si>
+    <t>should be with methane</t>
+  </si>
+  <si>
+    <t>possibly successful</t>
+  </si>
+  <si>
+    <t>not sure if successful</t>
+  </si>
+  <si>
+    <t>too high</t>
+  </si>
+  <si>
+    <t>not much there</t>
+  </si>
+  <si>
+    <t>2nd contact after KE</t>
+  </si>
+  <si>
+    <t>near Kyoto Express</t>
+  </si>
+  <si>
+    <t>successful; SO2 present</t>
+  </si>
+  <si>
+    <t>Anthemn of the Seas</t>
+  </si>
+  <si>
+    <t>in SECA</t>
+  </si>
+  <si>
+    <t>might have been too high</t>
+  </si>
+  <si>
+    <t>random small plume</t>
+  </si>
+  <si>
+    <t>might have missed it; not moving</t>
+  </si>
+  <si>
+    <t>failed to open</t>
+  </si>
+  <si>
+    <t>Vega Leader</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>Connemara</t>
+  </si>
+  <si>
+    <t>weak</t>
+  </si>
+  <si>
+    <t>medium size ship, northbound, near Connemara (?)</t>
+  </si>
+  <si>
+    <t>car transporter, likely VL</t>
+  </si>
+  <si>
+    <t>seen methane</t>
+  </si>
+  <si>
+    <t>Brussels Express</t>
+  </si>
+  <si>
+    <t>quite clean</t>
+  </si>
+  <si>
+    <t>not sure</t>
+  </si>
+  <si>
+    <t>not much plume</t>
+  </si>
+  <si>
+    <t>possibly little past</t>
+  </si>
+  <si>
+    <t>might be bit out</t>
+  </si>
+  <si>
+    <t>both or hard to say</t>
+  </si>
+  <si>
+    <t>Kamome Victoria and High Venture</t>
+  </si>
+  <si>
+    <t>near Kamome Victoria</t>
+  </si>
+  <si>
+    <t>between lanes</t>
+  </si>
+  <si>
+    <t>near Brussels Express</t>
+  </si>
+  <si>
+    <t>near Umm Quarn</t>
+  </si>
+  <si>
+    <t>filled to too low pressure</t>
+  </si>
+  <si>
+    <t>didn't fill</t>
+  </si>
+  <si>
+    <t>might have been too early, oil tanker</t>
+  </si>
+  <si>
+    <t>Celebrity Siluette</t>
+  </si>
+  <si>
+    <t>might be too early</t>
+  </si>
+  <si>
+    <t>Nordic Luebeck</t>
+  </si>
+  <si>
+    <t>fresh plume with SO2</t>
+  </si>
+  <si>
+    <t>aged plume</t>
+  </si>
+  <si>
+    <t>Mearsk Stratus</t>
+  </si>
+  <si>
+    <t>or cl teresa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">or unity star </t>
+  </si>
+  <si>
+    <t>intercomparison</t>
+  </si>
+  <si>
+    <t>End</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>File</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Ship</t>
+  </si>
+  <si>
+    <t>Bottle</t>
+  </si>
+  <si>
+    <t>Case</t>
+  </si>
+  <si>
+    <t>unlikely</t>
+  </si>
+  <si>
+    <t>described as tanker in log</t>
+  </si>
+  <si>
+    <t>Canadian Highway</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1561,8 +1849,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1596,6 +1897,90 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1633,7 +2018,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1758,6 +2143,76 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2053,8 +2508,8 @@
   <dimension ref="A1:M163"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4736,7 +5191,7 @@
         <v>308</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>449</v>
+        <v>589</v>
       </c>
       <c r="C69" s="8">
         <v>9574066</v>
@@ -8458,7 +8913,7 @@
   <dimension ref="A1:G167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
@@ -8467,7 +8922,7 @@
     <col min="1" max="1" width="8.7109375" style="8"/>
     <col min="2" max="2" width="26.28515625" style="8" customWidth="1"/>
     <col min="3" max="3" width="8.85546875" style="8"/>
-    <col min="4" max="4" width="10.28515625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" style="8" customWidth="1"/>
     <col min="6" max="6" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -10391,4 +10846,4459 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D089C6B1-D967-4CFB-85E4-EB86259232EA}">
+  <dimension ref="A1:H175"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D175" sqref="D175:E175"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="37.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="47.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="8" width="20.7109375" style="62" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="54"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="81" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="83" t="s">
+        <v>586</v>
+      </c>
+      <c r="B1" s="83" t="s">
+        <v>585</v>
+      </c>
+      <c r="C1" s="83" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="83" t="s">
+        <v>584</v>
+      </c>
+      <c r="E1" s="83" t="s">
+        <v>583</v>
+      </c>
+      <c r="F1" s="83" t="s">
+        <v>582</v>
+      </c>
+      <c r="G1" s="82" t="s">
+        <v>581</v>
+      </c>
+      <c r="H1" s="82" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="80">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2</v>
+      </c>
+      <c r="G2" s="62">
+        <v>44454.489629629628</v>
+      </c>
+      <c r="H2" s="62">
+        <v>44454.489722222221</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="80">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="F3" s="1">
+        <v>3</v>
+      </c>
+      <c r="G3" s="62">
+        <v>44454.490324074075</v>
+      </c>
+      <c r="H3" s="62">
+        <v>44454.490405092591</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="80">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="F4" s="1">
+        <v>4</v>
+      </c>
+      <c r="G4" s="62">
+        <v>44454.491030092591</v>
+      </c>
+      <c r="H4" s="62">
+        <v>44454.491122685184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="80">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="F5" s="1">
+        <v>5</v>
+      </c>
+      <c r="G5" s="62">
+        <v>44454.535034722219</v>
+      </c>
+      <c r="H5" s="62">
+        <v>44454.535115740742</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="80">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="F6" s="1">
+        <v>6</v>
+      </c>
+      <c r="G6" s="62">
+        <v>44454.555150462962</v>
+      </c>
+      <c r="H6" s="62">
+        <v>44454.555266203701</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="80">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="F7" s="1">
+        <v>7</v>
+      </c>
+      <c r="G7" s="62">
+        <v>44454.555289351854</v>
+      </c>
+      <c r="H7" s="62">
+        <v>44454.555393518516</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="80">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="F8" s="1">
+        <v>8</v>
+      </c>
+      <c r="G8" s="62">
+        <v>44454.555659722224</v>
+      </c>
+      <c r="H8" s="62">
+        <v>44454.555775462963</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="80">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="F9" s="1">
+        <v>9</v>
+      </c>
+      <c r="G9" s="62">
+        <v>44454.555787037039</v>
+      </c>
+      <c r="H9" s="62">
+        <v>44454.555891203701</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="80">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="F10" s="1">
+        <v>10</v>
+      </c>
+      <c r="G10" s="62">
+        <v>44454.556168981479</v>
+      </c>
+      <c r="H10" s="62">
+        <v>44454.556273148148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="80">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="F11" s="1">
+        <v>11</v>
+      </c>
+      <c r="G11" s="62">
+        <v>44454.556296296294</v>
+      </c>
+      <c r="H11" s="62">
+        <v>44454.55641203704</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="80">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="F12" s="1">
+        <v>12</v>
+      </c>
+      <c r="G12" s="62">
+        <v>44454.556840277779</v>
+      </c>
+      <c r="H12" s="62">
+        <v>44454.556944444441</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="80">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="F13" s="1">
+        <v>13</v>
+      </c>
+      <c r="G13" s="62">
+        <v>44454.55736111111</v>
+      </c>
+      <c r="H13" s="62">
+        <v>44454.55746527778</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="80">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="F14" s="1">
+        <v>14</v>
+      </c>
+      <c r="G14" s="62">
+        <v>44454.614050925928</v>
+      </c>
+      <c r="H14" s="62">
+        <v>44454.614224537036</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="80">
+        <v>5</v>
+      </c>
+      <c r="B15" s="1">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="F15" s="1">
+        <v>15</v>
+      </c>
+      <c r="G15" s="62">
+        <v>44454.614664351851</v>
+      </c>
+      <c r="H15" s="62">
+        <v>44454.614953703705</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="80">
+        <v>5</v>
+      </c>
+      <c r="B16" s="1">
+        <v>15</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="F16" s="1">
+        <v>16</v>
+      </c>
+      <c r="G16" s="62">
+        <v>44454.61577546296</v>
+      </c>
+      <c r="H16" s="62">
+        <v>44454.616041666668</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="80">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1">
+        <v>16</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="F17" s="1">
+        <v>17</v>
+      </c>
+      <c r="G17" s="62">
+        <v>44454.616712962961</v>
+      </c>
+      <c r="H17" s="62">
+        <v>44454.616909722223</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="79">
+        <v>105</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="F18" s="1">
+        <v>19</v>
+      </c>
+      <c r="G18" s="62">
+        <v>44454.511597222219</v>
+      </c>
+      <c r="H18" s="62">
+        <v>44454.511655092596</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="79">
+        <v>105</v>
+      </c>
+      <c r="B19" s="1">
+        <v>3</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="F19" s="1">
+        <v>20</v>
+      </c>
+      <c r="G19" s="62">
+        <v>44454.513368055559</v>
+      </c>
+      <c r="H19" s="62">
+        <v>44454.513425925928</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="79">
+        <v>105</v>
+      </c>
+      <c r="B20" s="1">
+        <v>4</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="F20" s="1">
+        <v>21</v>
+      </c>
+      <c r="G20" s="62">
+        <v>44454.516053240739</v>
+      </c>
+      <c r="H20" s="62">
+        <v>44454.516111111108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="79">
+        <v>105</v>
+      </c>
+      <c r="B21" s="1">
+        <v>5</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="F21" s="1">
+        <v>22</v>
+      </c>
+      <c r="G21" s="62">
+        <v>44454.517928240741</v>
+      </c>
+      <c r="H21" s="62">
+        <v>44454.518009259256</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="79">
+        <v>105</v>
+      </c>
+      <c r="B22" s="1">
+        <v>6</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="F22" s="1">
+        <v>23</v>
+      </c>
+      <c r="G22" s="62">
+        <v>44454.519409722219</v>
+      </c>
+      <c r="H22" s="62">
+        <v>44454.519490740742</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="79">
+        <v>105</v>
+      </c>
+      <c r="B23" s="1">
+        <v>7</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="F23" s="1">
+        <v>24</v>
+      </c>
+      <c r="G23" s="62">
+        <v>44454.522222222222</v>
+      </c>
+      <c r="H23" s="62">
+        <v>44454.522303240738</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="79">
+        <v>105</v>
+      </c>
+      <c r="B24" s="1">
+        <v>8</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="F24" s="1">
+        <v>25</v>
+      </c>
+      <c r="G24" s="62">
+        <v>44454.523240740738</v>
+      </c>
+      <c r="H24" s="62">
+        <v>44454.523321759261</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="79">
+        <v>105</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="F25" s="1">
+        <v>18</v>
+      </c>
+      <c r="G25" s="62">
+        <v>44454.532337962963</v>
+      </c>
+      <c r="H25" s="62">
+        <v>44454.532418981478</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="78">
+        <v>8</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D26" s="63" t="s">
+        <v>497</v>
+      </c>
+      <c r="E26" s="63"/>
+      <c r="F26" s="1">
+        <v>77</v>
+      </c>
+      <c r="G26" s="62">
+        <v>44463.495057870372</v>
+      </c>
+      <c r="H26" s="62">
+        <v>44463.49523148148</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="78">
+        <v>8</v>
+      </c>
+      <c r="B27" s="1">
+        <v>2</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D27" s="63" t="s">
+        <v>497</v>
+      </c>
+      <c r="E27" s="63"/>
+      <c r="F27" s="1">
+        <v>78</v>
+      </c>
+      <c r="G27" s="62">
+        <v>44463.524328703701</v>
+      </c>
+      <c r="H27" s="62">
+        <v>44463.52447916667</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="78">
+        <v>8</v>
+      </c>
+      <c r="B28" s="1">
+        <v>3</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D28" s="63" t="s">
+        <v>317</v>
+      </c>
+      <c r="E28" s="63"/>
+      <c r="F28" s="1">
+        <v>79</v>
+      </c>
+      <c r="G28" s="62">
+        <v>44463.544212962966</v>
+      </c>
+      <c r="H28" s="62">
+        <v>44463.544317129628</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="78">
+        <v>8</v>
+      </c>
+      <c r="B29" s="1">
+        <v>4</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D29" s="63" t="s">
+        <v>317</v>
+      </c>
+      <c r="E29" s="63"/>
+      <c r="F29" s="1">
+        <v>80</v>
+      </c>
+      <c r="G29" s="62">
+        <v>44463.544583333336</v>
+      </c>
+      <c r="H29" s="62">
+        <v>44463.544675925928</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="78">
+        <v>8</v>
+      </c>
+      <c r="B30" s="1">
+        <v>5</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D30" s="63" t="s">
+        <v>497</v>
+      </c>
+      <c r="E30" s="63" t="s">
+        <v>578</v>
+      </c>
+      <c r="F30" s="1">
+        <v>81</v>
+      </c>
+      <c r="G30" s="62">
+        <v>44463.564120370371</v>
+      </c>
+      <c r="H30" s="62">
+        <v>44463.564212962963</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="78">
+        <v>8</v>
+      </c>
+      <c r="B31" s="1">
+        <v>16</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D31" s="63" t="s">
+        <v>321</v>
+      </c>
+      <c r="E31" s="63"/>
+      <c r="F31" s="1">
+        <v>92</v>
+      </c>
+      <c r="G31" s="62">
+        <v>44463.579282407409</v>
+      </c>
+      <c r="H31" s="62">
+        <v>44463.579363425924</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="78">
+        <v>8</v>
+      </c>
+      <c r="B32" s="1">
+        <v>15</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D32" s="63" t="s">
+        <v>359</v>
+      </c>
+      <c r="E32" s="63"/>
+      <c r="F32" s="1">
+        <v>91</v>
+      </c>
+      <c r="G32" s="62">
+        <v>44463.581817129627</v>
+      </c>
+      <c r="H32" s="62">
+        <v>44463.581909722219</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="78">
+        <v>8</v>
+      </c>
+      <c r="B33" s="1">
+        <v>6</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D33" s="63" t="s">
+        <v>497</v>
+      </c>
+      <c r="E33" s="63" t="s">
+        <v>577</v>
+      </c>
+      <c r="F33" s="1">
+        <v>82</v>
+      </c>
+      <c r="G33" s="62">
+        <v>44463.583032407405</v>
+      </c>
+      <c r="H33" s="62">
+        <v>44463.583124999997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="78">
+        <v>8</v>
+      </c>
+      <c r="B34" s="1">
+        <v>14</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D34" s="63" t="s">
+        <v>345</v>
+      </c>
+      <c r="E34" s="63"/>
+      <c r="F34" s="1">
+        <v>90</v>
+      </c>
+      <c r="G34" s="62">
+        <v>44463.586886574078</v>
+      </c>
+      <c r="H34" s="62">
+        <v>44463.58697916667</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="78">
+        <v>8</v>
+      </c>
+      <c r="B35" s="1">
+        <v>13</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D35" s="63" t="s">
+        <v>322</v>
+      </c>
+      <c r="E35" s="63"/>
+      <c r="F35" s="1">
+        <v>89</v>
+      </c>
+      <c r="G35" s="62">
+        <v>44463.588460648149</v>
+      </c>
+      <c r="H35" s="62">
+        <v>44463.588553240741</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="78">
+        <v>8</v>
+      </c>
+      <c r="B36" s="1">
+        <v>7</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D36" s="63" t="s">
+        <v>497</v>
+      </c>
+      <c r="E36" s="63"/>
+      <c r="F36" s="1">
+        <v>83</v>
+      </c>
+      <c r="G36" s="62">
+        <v>44463.589826388888</v>
+      </c>
+      <c r="H36" s="62">
+        <v>44463.589918981481</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="78">
+        <v>8</v>
+      </c>
+      <c r="B37" s="1">
+        <v>8</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D37" s="63" t="s">
+        <v>497</v>
+      </c>
+      <c r="E37" s="63"/>
+      <c r="F37" s="1">
+        <v>84</v>
+      </c>
+      <c r="G37" s="62">
+        <v>44463.590613425928</v>
+      </c>
+      <c r="H37" s="62">
+        <v>44463.590694444443</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="78">
+        <v>8</v>
+      </c>
+      <c r="B38" s="1">
+        <v>9</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D38" s="63" t="s">
+        <v>497</v>
+      </c>
+      <c r="E38" s="63"/>
+      <c r="F38" s="1">
+        <v>85</v>
+      </c>
+      <c r="G38" s="62">
+        <v>44463.591400462959</v>
+      </c>
+      <c r="H38" s="62">
+        <v>44463.591481481482</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="78">
+        <v>8</v>
+      </c>
+      <c r="B39" s="1">
+        <v>10</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D39" s="63" t="s">
+        <v>497</v>
+      </c>
+      <c r="E39" s="63"/>
+      <c r="F39" s="1">
+        <v>86</v>
+      </c>
+      <c r="G39" s="62">
+        <v>44463.595578703702</v>
+      </c>
+      <c r="H39" s="62">
+        <v>44463.595659722225</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="78">
+        <v>8</v>
+      </c>
+      <c r="B40" s="1">
+        <v>11</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D40" s="63" t="s">
+        <v>497</v>
+      </c>
+      <c r="E40" s="63"/>
+      <c r="F40" s="1">
+        <v>87</v>
+      </c>
+      <c r="G40" s="62">
+        <v>44463.596215277779</v>
+      </c>
+      <c r="H40" s="62">
+        <v>44463.596296296295</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="78">
+        <v>8</v>
+      </c>
+      <c r="B41" s="1">
+        <v>12</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D41" s="63" t="s">
+        <v>497</v>
+      </c>
+      <c r="E41" s="63"/>
+      <c r="F41" s="1">
+        <v>88</v>
+      </c>
+      <c r="G41" s="62">
+        <v>44463.596574074072</v>
+      </c>
+      <c r="H41" s="62">
+        <v>44463.596655092595</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="77">
+        <v>106</v>
+      </c>
+      <c r="B42" s="1">
+        <v>3</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D42" s="63" t="s">
+        <v>319</v>
+      </c>
+      <c r="E42" s="63"/>
+      <c r="F42" s="1">
+        <v>95</v>
+      </c>
+      <c r="G42" s="62">
+        <v>44463.554270833331</v>
+      </c>
+      <c r="H42" s="62">
+        <v>44463.554351851853</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="77">
+        <v>106</v>
+      </c>
+      <c r="B43" s="1">
+        <v>4</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D43" s="63" t="s">
+        <v>576</v>
+      </c>
+      <c r="E43" s="63"/>
+      <c r="F43" s="1">
+        <v>96</v>
+      </c>
+      <c r="G43" s="62">
+        <v>44463.555219907408</v>
+      </c>
+      <c r="H43" s="62">
+        <v>44463.555300925924</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="77">
+        <v>106</v>
+      </c>
+      <c r="B44" s="1">
+        <v>5</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D44" s="63" t="s">
+        <v>319</v>
+      </c>
+      <c r="E44" s="63"/>
+      <c r="F44" s="1">
+        <v>97</v>
+      </c>
+      <c r="G44" s="62">
+        <v>44463.558032407411</v>
+      </c>
+      <c r="H44" s="62">
+        <v>44463.558113425926</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="77">
+        <v>106</v>
+      </c>
+      <c r="B45" s="1">
+        <v>6</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D45" s="63" t="s">
+        <v>318</v>
+      </c>
+      <c r="E45" s="63"/>
+      <c r="F45" s="1">
+        <v>98</v>
+      </c>
+      <c r="G45" s="62">
+        <v>44463.561238425929</v>
+      </c>
+      <c r="H45" s="62">
+        <v>44463.561331018522</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="77">
+        <v>106</v>
+      </c>
+      <c r="B46" s="1">
+        <v>7</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D46" s="63" t="s">
+        <v>320</v>
+      </c>
+      <c r="E46" s="63"/>
+      <c r="F46" s="1">
+        <v>99</v>
+      </c>
+      <c r="G46" s="62">
+        <v>44463.569189814814</v>
+      </c>
+      <c r="H46" s="62">
+        <v>44463.569282407407</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="77">
+        <v>106</v>
+      </c>
+      <c r="B47" s="1">
+        <v>8</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D47" s="63" t="s">
+        <v>320</v>
+      </c>
+      <c r="E47" s="63"/>
+      <c r="F47" s="1">
+        <v>100</v>
+      </c>
+      <c r="G47" s="62">
+        <v>44463.57167824074</v>
+      </c>
+      <c r="H47" s="62">
+        <v>44463.571759259263</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="77">
+        <v>106</v>
+      </c>
+      <c r="B48" s="1">
+        <v>1</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D48" s="63" t="s">
+        <v>321</v>
+      </c>
+      <c r="E48" s="63"/>
+      <c r="F48" s="1">
+        <v>93</v>
+      </c>
+      <c r="G48" s="62">
+        <v>44463.574317129627</v>
+      </c>
+      <c r="H48" s="62">
+        <v>44463.57439814815</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="77">
+        <v>106</v>
+      </c>
+      <c r="B49" s="1">
+        <v>2</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D49" s="63" t="s">
+        <v>321</v>
+      </c>
+      <c r="E49" s="63"/>
+      <c r="F49" s="1">
+        <v>94</v>
+      </c>
+      <c r="G49" s="62">
+        <v>44463.577048611114</v>
+      </c>
+      <c r="H49" s="62">
+        <v>44463.57712962963</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="76">
+        <v>1</v>
+      </c>
+      <c r="B50" s="1">
+        <v>1</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="F50" s="1">
+        <v>105</v>
+      </c>
+      <c r="G50" s="62">
+        <v>44466.601030092592</v>
+      </c>
+      <c r="H50" s="62">
+        <v>44466.601122685184</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="76">
+        <v>1</v>
+      </c>
+      <c r="B51" s="1">
+        <v>2</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D51" s="84" t="s">
+        <v>262</v>
+      </c>
+      <c r="E51" s="84" t="s">
+        <v>587</v>
+      </c>
+      <c r="F51" s="1">
+        <v>106</v>
+      </c>
+      <c r="G51" s="62">
+        <v>44466.603935185187</v>
+      </c>
+      <c r="H51" s="62">
+        <v>44466.604016203702</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="76">
+        <v>1</v>
+      </c>
+      <c r="B52" s="1">
+        <v>3</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D52" s="84" t="s">
+        <v>402</v>
+      </c>
+      <c r="E52" s="84" t="s">
+        <v>588</v>
+      </c>
+      <c r="F52" s="1">
+        <v>107</v>
+      </c>
+      <c r="G52" s="62">
+        <v>44466.606215277781</v>
+      </c>
+      <c r="H52" s="62">
+        <v>44466.606296296297</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="76">
+        <v>1</v>
+      </c>
+      <c r="B53" s="1">
+        <v>4</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D53" s="84" t="s">
+        <v>435</v>
+      </c>
+      <c r="E53" s="63"/>
+      <c r="F53" s="1">
+        <v>108</v>
+      </c>
+      <c r="G53" s="62">
+        <v>44466.610127314816</v>
+      </c>
+      <c r="H53" s="62">
+        <v>44466.610208333332</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="76">
+        <v>1</v>
+      </c>
+      <c r="B54" s="1">
+        <v>5</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="F54" s="1">
+        <v>109</v>
+      </c>
+      <c r="G54" s="62">
+        <v>44466.621550925927</v>
+      </c>
+      <c r="H54" s="62">
+        <v>44466.62164351852</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="76">
+        <v>1</v>
+      </c>
+      <c r="B55" s="1">
+        <v>6</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F55" s="1">
+        <v>110</v>
+      </c>
+      <c r="G55" s="62">
+        <v>44466.621944444443</v>
+      </c>
+      <c r="H55" s="62">
+        <v>44466.622025462966</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="76">
+        <v>1</v>
+      </c>
+      <c r="B56" s="1">
+        <v>7</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="F56" s="1">
+        <v>111</v>
+      </c>
+      <c r="G56" s="62">
+        <v>44466.634791666664</v>
+      </c>
+      <c r="H56" s="62">
+        <v>44466.634872685187</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="76">
+        <v>1</v>
+      </c>
+      <c r="B57" s="1">
+        <v>8</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="F57" s="1">
+        <v>112</v>
+      </c>
+      <c r="G57" s="62">
+        <v>44466.654421296298</v>
+      </c>
+      <c r="H57" s="62">
+        <v>44466.654502314814</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="76">
+        <v>1</v>
+      </c>
+      <c r="B58" s="1">
+        <v>11</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="F58" s="1">
+        <v>115</v>
+      </c>
+      <c r="G58" s="62">
+        <v>44467.566504629627</v>
+      </c>
+      <c r="H58" s="62">
+        <v>44467.56658564815</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="76">
+        <v>1</v>
+      </c>
+      <c r="B59" s="1">
+        <v>12</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="F59" s="1">
+        <v>116</v>
+      </c>
+      <c r="G59" s="62">
+        <v>44467.572314814817</v>
+      </c>
+      <c r="H59" s="62">
+        <v>44467.572395833333</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="76">
+        <v>1</v>
+      </c>
+      <c r="B60" s="1">
+        <v>13</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="F60" s="1">
+        <v>117</v>
+      </c>
+      <c r="G60" s="62">
+        <v>44467.575532407405</v>
+      </c>
+      <c r="H60" s="62">
+        <v>44467.575613425928</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="76">
+        <v>1</v>
+      </c>
+      <c r="B61" s="1">
+        <v>14</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="F61" s="1">
+        <v>118</v>
+      </c>
+      <c r="G61" s="62">
+        <v>44467.575729166667</v>
+      </c>
+      <c r="H61" s="62">
+        <v>44467.575821759259</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="76">
+        <v>1</v>
+      </c>
+      <c r="B62" s="1">
+        <v>15</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="F62" s="1">
+        <v>119</v>
+      </c>
+      <c r="G62" s="62">
+        <v>44467.577465277776</v>
+      </c>
+      <c r="H62" s="62">
+        <v>44467.577546296299</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="76">
+        <v>1</v>
+      </c>
+      <c r="B63" s="1">
+        <v>16</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D63" s="84" t="s">
+        <v>497</v>
+      </c>
+      <c r="E63" s="84"/>
+      <c r="F63" s="1">
+        <v>120</v>
+      </c>
+      <c r="G63" s="62">
+        <v>44468.513020833336</v>
+      </c>
+      <c r="H63" s="62">
+        <v>44468.513101851851</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="76">
+        <v>1</v>
+      </c>
+      <c r="B64" s="73">
+        <v>9</v>
+      </c>
+      <c r="C64" s="73" t="s">
+        <v>312</v>
+      </c>
+      <c r="D64" s="85" t="s">
+        <v>50</v>
+      </c>
+      <c r="E64" s="85" t="s">
+        <v>569</v>
+      </c>
+      <c r="F64" s="73">
+        <v>113</v>
+      </c>
+      <c r="G64" s="72" t="s">
+        <v>50</v>
+      </c>
+      <c r="H64" s="72" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="76">
+        <v>1</v>
+      </c>
+      <c r="B65" s="73">
+        <v>10</v>
+      </c>
+      <c r="C65" s="73" t="s">
+        <v>312</v>
+      </c>
+      <c r="D65" s="85" t="s">
+        <v>50</v>
+      </c>
+      <c r="E65" s="85" t="s">
+        <v>568</v>
+      </c>
+      <c r="F65" s="73">
+        <v>114</v>
+      </c>
+      <c r="G65" s="72" t="s">
+        <v>50</v>
+      </c>
+      <c r="H65" s="72" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="74">
+        <v>2</v>
+      </c>
+      <c r="B66" s="1">
+        <v>1</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D66" s="84" t="s">
+        <v>497</v>
+      </c>
+      <c r="E66" s="84" t="s">
+        <v>567</v>
+      </c>
+      <c r="F66" s="1">
+        <v>133</v>
+      </c>
+      <c r="G66" s="62">
+        <v>44468.558078703703</v>
+      </c>
+      <c r="H66" s="62">
+        <v>44468.558159722219</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="74">
+        <v>2</v>
+      </c>
+      <c r="B67" s="1">
+        <v>2</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="F67" s="1">
+        <v>134</v>
+      </c>
+      <c r="G67" s="62">
+        <v>44468.561249999999</v>
+      </c>
+      <c r="H67" s="62">
+        <v>44468.561331018522</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="74">
+        <v>2</v>
+      </c>
+      <c r="B68" s="1">
+        <v>3</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="F68" s="1">
+        <v>135</v>
+      </c>
+      <c r="G68" s="62">
+        <v>44468.56962962963</v>
+      </c>
+      <c r="H68" s="62">
+        <v>44468.569710648146</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="74">
+        <v>2</v>
+      </c>
+      <c r="B69" s="1">
+        <v>4</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="F69" s="1">
+        <v>136</v>
+      </c>
+      <c r="G69" s="62">
+        <v>44468.572129629632</v>
+      </c>
+      <c r="H69" s="62">
+        <v>44468.572210648148</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="74">
+        <v>2</v>
+      </c>
+      <c r="B70" s="1">
+        <v>5</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="F70" s="1">
+        <v>137</v>
+      </c>
+      <c r="G70" s="62">
+        <v>44468.574479166666</v>
+      </c>
+      <c r="H70" s="62">
+        <v>44468.574560185189</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="74">
+        <v>2</v>
+      </c>
+      <c r="B71" s="1">
+        <v>6</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="F71" s="1">
+        <v>138</v>
+      </c>
+      <c r="G71" s="62">
+        <v>44468.578946759262</v>
+      </c>
+      <c r="H71" s="62">
+        <v>44468.579027777778</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="74">
+        <v>2</v>
+      </c>
+      <c r="B72" s="1">
+        <v>7</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D72" s="84" t="s">
+        <v>589</v>
+      </c>
+      <c r="E72" s="84"/>
+      <c r="F72" s="1">
+        <v>139</v>
+      </c>
+      <c r="G72" s="62">
+        <v>44468.584236111114</v>
+      </c>
+      <c r="H72" s="62">
+        <v>44468.584317129629</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="75">
+        <v>103</v>
+      </c>
+      <c r="B73" s="1">
+        <v>1</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="F73" s="1">
+        <v>66</v>
+      </c>
+      <c r="G73" s="62">
+        <v>44468.488009259258</v>
+      </c>
+      <c r="H73" s="62">
+        <v>44468.48809027778</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="75">
+        <v>103</v>
+      </c>
+      <c r="B74" s="1">
+        <v>2</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="F74" s="1">
+        <v>67</v>
+      </c>
+      <c r="G74" s="62">
+        <v>44468.49114583333</v>
+      </c>
+      <c r="H74" s="62">
+        <v>44468.491215277776</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="75">
+        <v>103</v>
+      </c>
+      <c r="B75" s="1">
+        <v>3</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="F75" s="1">
+        <v>68</v>
+      </c>
+      <c r="G75" s="62">
+        <v>44468.496157407404</v>
+      </c>
+      <c r="H75" s="62">
+        <v>44468.49622685185</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="75">
+        <v>103</v>
+      </c>
+      <c r="B76" s="1">
+        <v>4</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="F76" s="1">
+        <v>69</v>
+      </c>
+      <c r="G76" s="62">
+        <v>44468.502569444441</v>
+      </c>
+      <c r="H76" s="62">
+        <v>44468.502650462964</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="75">
+        <v>103</v>
+      </c>
+      <c r="B77" s="1">
+        <v>5</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="F77" s="1">
+        <v>70</v>
+      </c>
+      <c r="G77" s="62">
+        <v>44468.509641203702</v>
+      </c>
+      <c r="H77" s="62">
+        <v>44468.509710648148</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="75">
+        <v>103</v>
+      </c>
+      <c r="B78" s="1">
+        <v>6</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="F78" s="1">
+        <v>71</v>
+      </c>
+      <c r="G78" s="62">
+        <v>44468.520497685182</v>
+      </c>
+      <c r="H78" s="62">
+        <v>44468.520567129628</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="75">
+        <v>103</v>
+      </c>
+      <c r="B79" s="1">
+        <v>7</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="F79" s="1">
+        <v>72</v>
+      </c>
+      <c r="G79" s="62">
+        <v>44468.529374999998</v>
+      </c>
+      <c r="H79" s="62">
+        <v>44468.529444444444</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="75">
+        <v>103</v>
+      </c>
+      <c r="B80" s="1">
+        <v>8</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F80" s="1">
+        <v>73</v>
+      </c>
+      <c r="G80" s="62">
+        <v>44468.564826388887</v>
+      </c>
+      <c r="H80" s="62">
+        <v>44468.564895833333</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="74">
+        <v>2</v>
+      </c>
+      <c r="B81" s="1">
+        <v>9</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D81" s="63" t="s">
+        <v>549</v>
+      </c>
+      <c r="E81" s="63" t="s">
+        <v>554</v>
+      </c>
+      <c r="F81" s="1">
+        <v>141</v>
+      </c>
+      <c r="G81" s="62">
+        <v>44470.493287037039</v>
+      </c>
+      <c r="H81" s="62">
+        <v>44470.493368055555</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="74">
+        <v>2</v>
+      </c>
+      <c r="B82" s="1">
+        <v>10</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="F82" s="1">
+        <v>142</v>
+      </c>
+      <c r="G82" s="62">
+        <v>44470.49391203704</v>
+      </c>
+      <c r="H82" s="62">
+        <v>44470.493993055556</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="74">
+        <v>2</v>
+      </c>
+      <c r="B83" s="1">
+        <v>11</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D83" s="63" t="s">
+        <v>50</v>
+      </c>
+      <c r="E83" s="63" t="s">
+        <v>553</v>
+      </c>
+      <c r="F83" s="1">
+        <v>143</v>
+      </c>
+      <c r="G83" s="62">
+        <v>44470.495810185188</v>
+      </c>
+      <c r="H83" s="62">
+        <v>44470.495891203704</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="74">
+        <v>2</v>
+      </c>
+      <c r="B84" s="1">
+        <v>12</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="F84" s="1">
+        <v>144</v>
+      </c>
+      <c r="G84" s="62">
+        <v>44470.500625000001</v>
+      </c>
+      <c r="H84" s="62">
+        <v>44470.500706018516</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="74">
+        <v>2</v>
+      </c>
+      <c r="B85" s="1">
+        <v>13</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="F85" s="1">
+        <v>145</v>
+      </c>
+      <c r="G85" s="62">
+        <v>44470.500914351855</v>
+      </c>
+      <c r="H85" s="62">
+        <v>44470.501006944447</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="74">
+        <v>2</v>
+      </c>
+      <c r="B86" s="1">
+        <v>14</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="F86" s="1">
+        <v>146</v>
+      </c>
+      <c r="G86" s="62">
+        <v>44470.50545138889</v>
+      </c>
+      <c r="H86" s="62">
+        <v>44470.505532407406</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="74">
+        <v>2</v>
+      </c>
+      <c r="B87" s="1">
+        <v>15</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="F87" s="1">
+        <v>147</v>
+      </c>
+      <c r="G87" s="62">
+        <v>44470.509050925924</v>
+      </c>
+      <c r="H87" s="62">
+        <v>44470.509131944447</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="74">
+        <v>2</v>
+      </c>
+      <c r="B88" s="1">
+        <v>16</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="F88" s="1">
+        <v>148</v>
+      </c>
+      <c r="G88" s="62">
+        <v>44470.509293981479</v>
+      </c>
+      <c r="H88" s="62">
+        <v>44470.509363425925</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="74">
+        <v>2</v>
+      </c>
+      <c r="B89" s="73">
+        <v>8</v>
+      </c>
+      <c r="C89" s="73" t="s">
+        <v>268</v>
+      </c>
+      <c r="D89" s="85" t="s">
+        <v>543</v>
+      </c>
+      <c r="E89" s="85" t="s">
+        <v>548</v>
+      </c>
+      <c r="F89" s="73">
+        <v>140</v>
+      </c>
+      <c r="G89" s="72" t="s">
+        <v>50</v>
+      </c>
+      <c r="H89" s="72" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="71">
+        <v>3</v>
+      </c>
+      <c r="B90" s="1">
+        <v>1</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="F90" s="1">
+        <v>181</v>
+      </c>
+      <c r="G90" s="62">
+        <v>44470.51054398148</v>
+      </c>
+      <c r="H90" s="62">
+        <v>44470.510625000003</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="71">
+        <v>3</v>
+      </c>
+      <c r="B91" s="1">
+        <v>2</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="F91" s="1">
+        <v>182</v>
+      </c>
+      <c r="G91" s="62">
+        <v>44470.518414351849</v>
+      </c>
+      <c r="H91" s="62">
+        <v>44470.518495370372</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="71">
+        <v>3</v>
+      </c>
+      <c r="B92" s="1">
+        <v>3</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="F92" s="1">
+        <v>183</v>
+      </c>
+      <c r="G92" s="62">
+        <v>44470.521111111113</v>
+      </c>
+      <c r="H92" s="62">
+        <v>44470.521192129629</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="71">
+        <v>3</v>
+      </c>
+      <c r="B93" s="1">
+        <v>4</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="F93" s="1">
+        <v>184</v>
+      </c>
+      <c r="G93" s="62">
+        <v>44470.527025462965</v>
+      </c>
+      <c r="H93" s="62">
+        <v>44470.527106481481</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="71">
+        <v>3</v>
+      </c>
+      <c r="B94" s="1">
+        <v>5</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="F94" s="1">
+        <v>185</v>
+      </c>
+      <c r="G94" s="62">
+        <v>44470.537175925929</v>
+      </c>
+      <c r="H94" s="62">
+        <v>44470.537268518521</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="71">
+        <v>3</v>
+      </c>
+      <c r="B95" s="1">
+        <v>6</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="F95" s="1">
+        <v>186</v>
+      </c>
+      <c r="G95" s="62">
+        <v>44470.537708333337</v>
+      </c>
+      <c r="H95" s="62">
+        <v>44470.537789351853</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="71">
+        <v>3</v>
+      </c>
+      <c r="B96" s="1">
+        <v>7</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="F96" s="1">
+        <v>187</v>
+      </c>
+      <c r="G96" s="62">
+        <v>44470.541435185187</v>
+      </c>
+      <c r="H96" s="62">
+        <v>44470.541516203702</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="71">
+        <v>3</v>
+      </c>
+      <c r="B97" s="1">
+        <v>8</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D97" s="63" t="s">
+        <v>50</v>
+      </c>
+      <c r="E97" s="63" t="s">
+        <v>546</v>
+      </c>
+      <c r="F97" s="1">
+        <v>188</v>
+      </c>
+      <c r="G97" s="62">
+        <v>44470.544479166667</v>
+      </c>
+      <c r="H97" s="62">
+        <v>44470.544560185182</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="71">
+        <v>3</v>
+      </c>
+      <c r="B98" s="1">
+        <v>9</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="F98" s="1">
+        <v>189</v>
+      </c>
+      <c r="G98" s="62">
+        <v>44470.544895833336</v>
+      </c>
+      <c r="H98" s="62">
+        <v>44470.544988425929</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="71">
+        <v>3</v>
+      </c>
+      <c r="B99" s="1">
+        <v>10</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="F99" s="1">
+        <v>190</v>
+      </c>
+      <c r="G99" s="62">
+        <v>44470.610613425924</v>
+      </c>
+      <c r="H99" s="62">
+        <v>44470.610694444447</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="71">
+        <v>3</v>
+      </c>
+      <c r="B100" s="1">
+        <v>11</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="F100" s="1">
+        <v>191</v>
+      </c>
+      <c r="G100" s="62">
+        <v>44470.610937500001</v>
+      </c>
+      <c r="H100" s="62">
+        <v>44470.611018518517</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="71">
+        <v>3</v>
+      </c>
+      <c r="B101" s="1">
+        <v>12</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="F101" s="1">
+        <v>192</v>
+      </c>
+      <c r="G101" s="62">
+        <v>44470.643576388888</v>
+      </c>
+      <c r="H101" s="62">
+        <v>44470.643657407411</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="71">
+        <v>3</v>
+      </c>
+      <c r="B102" s="1">
+        <v>13</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="F102" s="1">
+        <v>193</v>
+      </c>
+      <c r="G102" s="62">
+        <v>44470.644409722219</v>
+      </c>
+      <c r="H102" s="62">
+        <v>44470.644490740742</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="71">
+        <v>3</v>
+      </c>
+      <c r="B103" s="1">
+        <v>14</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="F103" s="1">
+        <v>194</v>
+      </c>
+      <c r="G103" s="62">
+        <v>44470.646226851852</v>
+      </c>
+      <c r="H103" s="62">
+        <v>44470.646307870367</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="68">
+        <v>104</v>
+      </c>
+      <c r="B104" s="1">
+        <v>1</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="F104" s="1">
+        <v>121</v>
+      </c>
+      <c r="G104" s="62">
+        <v>44470.489629629628</v>
+      </c>
+      <c r="H104" s="62">
+        <v>44470.489722222221</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="68">
+        <v>104</v>
+      </c>
+      <c r="B105" s="1">
+        <v>2</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="F105" s="1">
+        <v>122</v>
+      </c>
+      <c r="G105" s="62">
+        <v>44470.534745370373</v>
+      </c>
+      <c r="H105" s="62">
+        <v>44470.534849537034</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="68">
+        <v>104</v>
+      </c>
+      <c r="B106" s="1">
+        <v>3</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F106" s="1">
+        <v>123</v>
+      </c>
+      <c r="G106" s="62">
+        <v>44470.586851851855</v>
+      </c>
+      <c r="H106" s="62">
+        <v>44470.586944444447</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="68">
+        <v>104</v>
+      </c>
+      <c r="B107" s="1">
+        <v>4</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="F107" s="1">
+        <v>124</v>
+      </c>
+      <c r="G107" s="62">
+        <v>44470.622881944444</v>
+      </c>
+      <c r="H107" s="62">
+        <v>44470.622974537036</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="71">
+        <v>3</v>
+      </c>
+      <c r="B108" s="1">
+        <v>15</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="F108" s="1">
+        <v>195</v>
+      </c>
+      <c r="G108" s="62">
+        <v>44472.423449074071</v>
+      </c>
+      <c r="H108" s="62">
+        <v>44472.423530092594</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="71">
+        <v>3</v>
+      </c>
+      <c r="B109" s="1">
+        <v>16</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="F109" s="1">
+        <v>196</v>
+      </c>
+      <c r="G109" s="62">
+        <v>44472.425266203703</v>
+      </c>
+      <c r="H109" s="62">
+        <v>44472.425347222219</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="69">
+        <v>4</v>
+      </c>
+      <c r="B110" s="1">
+        <v>1</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="F110" s="1">
+        <v>50</v>
+      </c>
+      <c r="G110" s="62">
+        <v>44472.430196759262</v>
+      </c>
+      <c r="H110" s="62">
+        <v>44472.430289351854</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="69">
+        <v>4</v>
+      </c>
+      <c r="B111" s="1">
+        <v>2</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="F111" s="1">
+        <v>51</v>
+      </c>
+      <c r="G111" s="62">
+        <v>44472.446840277778</v>
+      </c>
+      <c r="H111" s="62">
+        <v>44472.446921296294</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="69">
+        <v>4</v>
+      </c>
+      <c r="B112" s="1">
+        <v>3</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D112" s="70" t="s">
+        <v>467</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="F112" s="1">
+        <v>52</v>
+      </c>
+      <c r="G112" s="62">
+        <v>44472.447118055556</v>
+      </c>
+      <c r="H112" s="62">
+        <v>44472.447199074071</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" s="69">
+        <v>4</v>
+      </c>
+      <c r="B113" s="1">
+        <v>4</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="F113" s="1">
+        <v>53</v>
+      </c>
+      <c r="G113" s="62">
+        <v>44472.452719907407</v>
+      </c>
+      <c r="H113" s="62">
+        <v>44472.452800925923</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="69">
+        <v>4</v>
+      </c>
+      <c r="B114" s="1">
+        <v>5</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="F114" s="1">
+        <v>54</v>
+      </c>
+      <c r="G114" s="62">
+        <v>44472.46303240741</v>
+      </c>
+      <c r="H114" s="62">
+        <v>44472.463113425925</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" s="69">
+        <v>4</v>
+      </c>
+      <c r="B115" s="1">
+        <v>6</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="F115" s="1">
+        <v>55</v>
+      </c>
+      <c r="G115" s="62">
+        <v>44472.469097222223</v>
+      </c>
+      <c r="H115" s="62">
+        <v>44472.469178240739</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="69">
+        <v>4</v>
+      </c>
+      <c r="B116" s="1">
+        <v>7</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="F116" s="1">
+        <v>56</v>
+      </c>
+      <c r="G116" s="62">
+        <v>44472.481307870374</v>
+      </c>
+      <c r="H116" s="62">
+        <v>44472.481388888889</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" s="69">
+        <v>4</v>
+      </c>
+      <c r="B117" s="1">
+        <v>8</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="F117" s="1">
+        <v>57</v>
+      </c>
+      <c r="G117" s="62">
+        <v>44472.506261574075</v>
+      </c>
+      <c r="H117" s="62">
+        <v>44472.506342592591</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" s="69">
+        <v>4</v>
+      </c>
+      <c r="B118" s="1">
+        <v>9</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D118" s="70" t="s">
+        <v>300</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="F118" s="1">
+        <v>58</v>
+      </c>
+      <c r="G118" s="62">
+        <v>44472.521331018521</v>
+      </c>
+      <c r="H118" s="62">
+        <v>44472.521412037036</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" s="68">
+        <v>104</v>
+      </c>
+      <c r="B119" s="1">
+        <v>5</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="F119" s="1">
+        <v>125</v>
+      </c>
+      <c r="G119" s="62">
+        <v>44472.443807870368</v>
+      </c>
+      <c r="H119" s="62">
+        <v>44472.44390046296</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" s="68">
+        <v>104</v>
+      </c>
+      <c r="B120" s="1">
+        <v>6</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F120" s="1">
+        <v>126</v>
+      </c>
+      <c r="G120" s="62">
+        <v>44472.466203703705</v>
+      </c>
+      <c r="H120" s="62">
+        <v>44472.466296296298</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" s="68">
+        <v>104</v>
+      </c>
+      <c r="B121" s="1">
+        <v>7</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="F121" s="1">
+        <v>127</v>
+      </c>
+      <c r="G121" s="62">
+        <v>44472.477754629632</v>
+      </c>
+      <c r="H121" s="62">
+        <v>44472.477835648147</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" s="69">
+        <v>4</v>
+      </c>
+      <c r="B122" s="1">
+        <v>10</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="F122" s="1">
+        <v>59</v>
+      </c>
+      <c r="G122" s="62">
+        <v>44474.522511574076</v>
+      </c>
+      <c r="H122" s="62">
+        <v>44474.522592592592</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" s="69">
+        <v>4</v>
+      </c>
+      <c r="B123" s="1">
+        <v>11</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="F123" s="1">
+        <v>60</v>
+      </c>
+      <c r="G123" s="62">
+        <v>44474.551134259258</v>
+      </c>
+      <c r="H123" s="62">
+        <v>44474.551215277781</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" s="69">
+        <v>4</v>
+      </c>
+      <c r="B124" s="1">
+        <v>12</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="F124" s="1">
+        <v>61</v>
+      </c>
+      <c r="G124" s="62">
+        <v>44474.574618055558</v>
+      </c>
+      <c r="H124" s="62">
+        <v>44474.574699074074</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" s="69">
+        <v>4</v>
+      </c>
+      <c r="B125" s="1">
+        <v>13</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="F125" s="1">
+        <v>62</v>
+      </c>
+      <c r="G125" s="62">
+        <v>44474.578113425923</v>
+      </c>
+      <c r="H125" s="62">
+        <v>44474.578194444446</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" s="69">
+        <v>4</v>
+      </c>
+      <c r="B126" s="1">
+        <v>14</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="F126" s="1">
+        <v>63</v>
+      </c>
+      <c r="G126" s="62">
+        <v>44474.585081018522</v>
+      </c>
+      <c r="H126" s="62">
+        <v>44474.585162037038</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" s="69">
+        <v>4</v>
+      </c>
+      <c r="B127" s="1">
+        <v>15</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="F127" s="1">
+        <v>64</v>
+      </c>
+      <c r="G127" s="62">
+        <v>44474.590312499997</v>
+      </c>
+      <c r="H127" s="62">
+        <v>44474.59039351852</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" s="69">
+        <v>4</v>
+      </c>
+      <c r="B128" s="1">
+        <v>16</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="F128" s="1">
+        <v>65</v>
+      </c>
+      <c r="G128" s="62">
+        <v>44474.6018287037</v>
+      </c>
+      <c r="H128" s="62">
+        <v>44474.601909722223</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" s="68">
+        <v>104</v>
+      </c>
+      <c r="B129" s="1">
+        <v>8</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="F129" s="1">
+        <v>128</v>
+      </c>
+      <c r="G129" s="62">
+        <v>44474.532858796294</v>
+      </c>
+      <c r="H129" s="62">
+        <v>44474.532962962963</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" s="66">
+        <v>6</v>
+      </c>
+      <c r="B130" s="1">
+        <v>1</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="F130" s="1">
+        <v>149</v>
+      </c>
+      <c r="G130" s="62">
+        <v>44475.608715277776</v>
+      </c>
+      <c r="H130" s="62">
+        <v>44475.608807870369</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" s="66">
+        <v>6</v>
+      </c>
+      <c r="B131" s="1">
+        <v>2</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="F131" s="1">
+        <v>150</v>
+      </c>
+      <c r="G131" s="62">
+        <v>44475.660520833335</v>
+      </c>
+      <c r="H131" s="62">
+        <v>44475.660601851851</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" s="66">
+        <v>6</v>
+      </c>
+      <c r="B132" s="1">
+        <v>3</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="F132" s="1">
+        <v>151</v>
+      </c>
+      <c r="G132" s="62">
+        <v>44475.660914351851</v>
+      </c>
+      <c r="H132" s="62">
+        <v>44475.660995370374</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" s="66">
+        <v>6</v>
+      </c>
+      <c r="B133" s="1">
+        <v>4</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="F133" s="1">
+        <v>152</v>
+      </c>
+      <c r="G133" s="62">
+        <v>44476.489988425928</v>
+      </c>
+      <c r="H133" s="62">
+        <v>44476.490057870367</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" s="66">
+        <v>6</v>
+      </c>
+      <c r="B134" s="1">
+        <v>5</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="F134" s="1">
+        <v>153</v>
+      </c>
+      <c r="G134" s="62">
+        <v>44476.490497685183</v>
+      </c>
+      <c r="H134" s="62">
+        <v>44476.490578703706</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" s="66">
+        <v>6</v>
+      </c>
+      <c r="B135" s="1">
+        <v>6</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="F135" s="1">
+        <v>154</v>
+      </c>
+      <c r="G135" s="62">
+        <v>44476.499849537038</v>
+      </c>
+      <c r="H135" s="62">
+        <v>44476.499930555554</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" s="66">
+        <v>6</v>
+      </c>
+      <c r="B136" s="1">
+        <v>7</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="F136" s="1">
+        <v>155</v>
+      </c>
+      <c r="G136" s="62">
+        <v>44476.500162037039</v>
+      </c>
+      <c r="H136" s="62">
+        <v>44476.500243055554</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" s="66">
+        <v>6</v>
+      </c>
+      <c r="B137" s="1">
+        <v>8</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="F137" s="1">
+        <v>156</v>
+      </c>
+      <c r="G137" s="62">
+        <v>44476.500543981485</v>
+      </c>
+      <c r="H137" s="62">
+        <v>44476.500625000001</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" s="66">
+        <v>6</v>
+      </c>
+      <c r="B138" s="1">
+        <v>9</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="F138" s="1">
+        <v>157</v>
+      </c>
+      <c r="G138" s="62">
+        <v>44476.501840277779</v>
+      </c>
+      <c r="H138" s="62">
+        <v>44476.501921296294</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" s="66">
+        <v>6</v>
+      </c>
+      <c r="B139" s="1">
+        <v>10</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="F139" s="1">
+        <v>158</v>
+      </c>
+      <c r="G139" s="62">
+        <v>44476.517881944441</v>
+      </c>
+      <c r="H139" s="62">
+        <v>44476.517974537041</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" s="66">
+        <v>6</v>
+      </c>
+      <c r="B140" s="1">
+        <v>11</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="F140" s="1">
+        <v>159</v>
+      </c>
+      <c r="G140" s="62">
+        <v>44476.530995370369</v>
+      </c>
+      <c r="H140" s="62">
+        <v>44476.531076388892</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" s="67">
+        <v>101</v>
+      </c>
+      <c r="B141" s="1">
+        <v>1</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="F141" s="1">
+        <v>30</v>
+      </c>
+      <c r="G141" s="62">
+        <v>44476.496157407404</v>
+      </c>
+      <c r="H141" s="62">
+        <v>44476.49622685185</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" s="67">
+        <v>101</v>
+      </c>
+      <c r="B142" s="1">
+        <v>2</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="F142" s="1">
+        <v>31</v>
+      </c>
+      <c r="G142" s="62">
+        <v>44476.499571759261</v>
+      </c>
+      <c r="H142" s="62">
+        <v>44476.499641203707</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" s="66">
+        <v>6</v>
+      </c>
+      <c r="B143" s="1">
+        <v>13</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="F143" s="1">
+        <v>160</v>
+      </c>
+      <c r="G143" s="62">
+        <v>44477.544282407405</v>
+      </c>
+      <c r="H143" s="62">
+        <v>44477.544363425928</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" s="66">
+        <v>6</v>
+      </c>
+      <c r="B144" s="1">
+        <v>14</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="F144" s="1">
+        <v>161</v>
+      </c>
+      <c r="G144" s="62">
+        <v>44477.555960648147</v>
+      </c>
+      <c r="H144" s="62">
+        <v>44477.556041666663</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" s="66">
+        <v>6</v>
+      </c>
+      <c r="B145" s="1">
+        <v>15</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="F145" s="1">
+        <v>162</v>
+      </c>
+      <c r="G145" s="62">
+        <v>44477.567453703705</v>
+      </c>
+      <c r="H145" s="62">
+        <v>44477.56753472222</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" s="66">
+        <v>6</v>
+      </c>
+      <c r="B146" s="1">
+        <v>16</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="F146" s="1">
+        <v>163</v>
+      </c>
+      <c r="G146" s="62">
+        <v>44477.578888888886</v>
+      </c>
+      <c r="H146" s="62">
+        <v>44477.578969907408</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" s="65">
+        <v>7</v>
+      </c>
+      <c r="B147" s="1">
+        <v>1</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="F147" s="1">
+        <v>197</v>
+      </c>
+      <c r="G147" s="62">
+        <v>44477.610266203701</v>
+      </c>
+      <c r="H147" s="62">
+        <v>44477.610358796293</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" s="65">
+        <v>7</v>
+      </c>
+      <c r="B148" s="1">
+        <v>2</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="F148" s="1">
+        <v>198</v>
+      </c>
+      <c r="G148" s="62">
+        <v>44477.611932870372</v>
+      </c>
+      <c r="H148" s="62">
+        <v>44477.612025462964</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149" s="65">
+        <v>7</v>
+      </c>
+      <c r="B149" s="1">
+        <v>3</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="F149" s="1">
+        <v>199</v>
+      </c>
+      <c r="G149" s="62">
+        <v>44477.640104166669</v>
+      </c>
+      <c r="H149" s="62">
+        <v>44477.640185185184</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150" s="67">
+        <v>101</v>
+      </c>
+      <c r="B150" s="1">
+        <v>3</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="F150" s="1">
+        <v>32</v>
+      </c>
+      <c r="G150" s="62">
+        <v>44477.539155092592</v>
+      </c>
+      <c r="H150" s="62">
+        <v>44477.539236111108</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" s="67">
+        <v>101</v>
+      </c>
+      <c r="B151" s="1">
+        <v>4</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="F151" s="1">
+        <v>33</v>
+      </c>
+      <c r="G151" s="62">
+        <v>44477.539375</v>
+      </c>
+      <c r="H151" s="62">
+        <v>44477.539456018516</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" s="67">
+        <v>101</v>
+      </c>
+      <c r="B152" s="1">
+        <v>5</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="F152" s="1">
+        <v>34</v>
+      </c>
+      <c r="G152" s="62">
+        <v>44477.560567129629</v>
+      </c>
+      <c r="H152" s="62">
+        <v>44477.560648148145</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" s="67">
+        <v>101</v>
+      </c>
+      <c r="B153" s="1">
+        <v>7</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="F153" s="1">
+        <v>36</v>
+      </c>
+      <c r="G153" s="62">
+        <v>44477.58829861111</v>
+      </c>
+      <c r="H153" s="62">
+        <v>44477.588368055556</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154" s="67">
+        <v>101</v>
+      </c>
+      <c r="B154" s="1">
+        <v>8</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="F154" s="1">
+        <v>37</v>
+      </c>
+      <c r="G154" s="62">
+        <v>44477.605775462966</v>
+      </c>
+      <c r="H154" s="62">
+        <v>44477.605844907404</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155" s="67">
+        <v>101</v>
+      </c>
+      <c r="B155" s="1">
+        <v>6</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="F155" s="1">
+        <v>35</v>
+      </c>
+      <c r="G155" s="62">
+        <v>44477.661793981482</v>
+      </c>
+      <c r="H155" s="62">
+        <v>44477.661851851852</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156" s="66">
+        <v>6</v>
+      </c>
+      <c r="B156" s="1">
+        <v>12</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="F156" s="1">
+        <v>164</v>
+      </c>
+      <c r="G156" s="62">
+        <v>44478.458506944444</v>
+      </c>
+      <c r="H156" s="62">
+        <v>44478.458564814813</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157" s="65">
+        <v>7</v>
+      </c>
+      <c r="B157" s="1">
+        <v>4</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="F157" s="1">
+        <v>200</v>
+      </c>
+      <c r="G157" s="62">
+        <v>44478.484560185185</v>
+      </c>
+      <c r="H157" s="62">
+        <v>44478.4846412037</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158" s="65">
+        <v>7</v>
+      </c>
+      <c r="B158" s="1">
+        <v>5</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="F158" s="1">
+        <v>201</v>
+      </c>
+      <c r="G158" s="62">
+        <v>44478.526226851849</v>
+      </c>
+      <c r="H158" s="62">
+        <v>44478.526307870372</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A159" s="65">
+        <v>7</v>
+      </c>
+      <c r="B159" s="1">
+        <v>6</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="F159" s="1">
+        <v>202</v>
+      </c>
+      <c r="G159" s="62">
+        <v>44478.571585648147</v>
+      </c>
+      <c r="H159" s="62">
+        <v>44478.57167824074</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A160" s="65">
+        <v>7</v>
+      </c>
+      <c r="B160" s="1">
+        <v>7</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="F160" s="1">
+        <v>203</v>
+      </c>
+      <c r="G160" s="62">
+        <v>44478.611238425925</v>
+      </c>
+      <c r="H160" s="62">
+        <v>44478.611319444448</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161" s="64">
+        <v>102</v>
+      </c>
+      <c r="B161" s="1">
+        <v>1</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="F161" s="1">
+        <v>38</v>
+      </c>
+      <c r="G161" s="62">
+        <v>44478.473946759259</v>
+      </c>
+      <c r="H161" s="62">
+        <v>44478.474016203705</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162" s="64">
+        <v>102</v>
+      </c>
+      <c r="B162" s="1">
+        <v>2</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="F162" s="1">
+        <v>39</v>
+      </c>
+      <c r="G162" s="62">
+        <v>44478.492164351854</v>
+      </c>
+      <c r="H162" s="62">
+        <v>44478.492222222223</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A163" s="64">
+        <v>102</v>
+      </c>
+      <c r="B163" s="1">
+        <v>3</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="F163" s="1">
+        <v>40</v>
+      </c>
+      <c r="G163" s="62">
+        <v>44478.502928240741</v>
+      </c>
+      <c r="H163" s="62">
+        <v>44478.502986111111</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164" s="64">
+        <v>102</v>
+      </c>
+      <c r="B164" s="1">
+        <v>4</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="F164" s="1">
+        <v>41</v>
+      </c>
+      <c r="G164" s="62">
+        <v>44478.518506944441</v>
+      </c>
+      <c r="H164" s="62">
+        <v>44478.518576388888</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165" s="64">
+        <v>102</v>
+      </c>
+      <c r="B165" s="1">
+        <v>5</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="F165" s="1">
+        <v>42</v>
+      </c>
+      <c r="G165" s="62">
+        <v>44478.546597222223</v>
+      </c>
+      <c r="H165" s="62">
+        <v>44478.546666666669</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166" s="64">
+        <v>102</v>
+      </c>
+      <c r="B166" s="1">
+        <v>6</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="F166" s="1">
+        <v>43</v>
+      </c>
+      <c r="G166" s="62">
+        <v>44478.588993055557</v>
+      </c>
+      <c r="H166" s="62">
+        <v>44478.589050925926</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A167" s="64">
+        <v>102</v>
+      </c>
+      <c r="B167" s="1">
+        <v>7</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="F167" s="1">
+        <v>44</v>
+      </c>
+      <c r="G167" s="62">
+        <v>44478.591874999998</v>
+      </c>
+      <c r="H167" s="62">
+        <v>44478.591932870368</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A168" s="65">
+        <v>7</v>
+      </c>
+      <c r="B168" s="1">
+        <v>8</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="F168" s="1">
+        <v>204</v>
+      </c>
+      <c r="G168" s="62">
+        <v>44480.441388888888</v>
+      </c>
+      <c r="H168" s="62">
+        <v>44480.441481481481</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A169" s="65">
+        <v>7</v>
+      </c>
+      <c r="B169" s="1">
+        <v>9</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="F169" s="1">
+        <v>205</v>
+      </c>
+      <c r="G169" s="62">
+        <v>44480.452986111108</v>
+      </c>
+      <c r="H169" s="62">
+        <v>44480.453067129631</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A170" s="65">
+        <v>7</v>
+      </c>
+      <c r="B170" s="1">
+        <v>10</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="F170" s="1">
+        <v>206</v>
+      </c>
+      <c r="G170" s="62">
+        <v>44480.479733796295</v>
+      </c>
+      <c r="H170" s="62">
+        <v>44480.479814814818</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A171" s="65">
+        <v>7</v>
+      </c>
+      <c r="B171" s="1">
+        <v>11</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="F171" s="1">
+        <v>207</v>
+      </c>
+      <c r="G171" s="62">
+        <v>44480.493287037039</v>
+      </c>
+      <c r="H171" s="62">
+        <v>44480.493368055555</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A172" s="65">
+        <v>7</v>
+      </c>
+      <c r="B172" s="1">
+        <v>12</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="F172" s="1">
+        <v>208</v>
+      </c>
+      <c r="G172" s="62">
+        <v>44480.52412037037</v>
+      </c>
+      <c r="H172" s="62">
+        <v>44480.524201388886</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A173" s="65">
+        <v>7</v>
+      </c>
+      <c r="B173" s="1">
+        <v>13</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="F173" s="1">
+        <v>209</v>
+      </c>
+      <c r="G173" s="62">
+        <v>44480.525266203702</v>
+      </c>
+      <c r="H173" s="62">
+        <v>44480.525347222225</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A174" s="65">
+        <v>7</v>
+      </c>
+      <c r="B174" s="1">
+        <v>14</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="F174" s="1">
+        <v>210</v>
+      </c>
+      <c r="G174" s="62">
+        <v>44480.539710648147</v>
+      </c>
+      <c r="H174" s="62">
+        <v>44480.53979166667</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A175" s="64">
+        <v>102</v>
+      </c>
+      <c r="B175" s="1">
+        <v>8</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D175" s="84" t="s">
+        <v>497</v>
+      </c>
+      <c r="E175" s="84" t="s">
+        <v>495</v>
+      </c>
+      <c r="F175" s="1">
+        <v>45</v>
+      </c>
+      <c r="G175" s="62">
+        <v>44480.441168981481</v>
+      </c>
+      <c r="H175" s="62">
+        <v>44480.441250000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:H175" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H175">
+      <sortCondition ref="C1:C175"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>